--- a/story_xlsx_files/24.xlsx
+++ b/story_xlsx_files/24.xlsx
@@ -12,12 +12,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Attending a Lecture Proposal</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lana walked into lecture holding hands with her boyfriend Aaron, who was consciously trying not to hyperventilate and give away his plan to propose to Lana during class. </t>
+  </si>
+  <si>
+    <t>Lana was lost in thought, still puzzling over a calculus problem on her problem set due that night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The lecture hall was the fanciest one at Harvard, with chandeliers, high ceilings, wood floors and double-decker chalkboards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is where Aaron and Lana had met two years ago during an economics class, and now they were back together in the same lecture hall for their Chemistry class. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The professor caught Aaron's eye as he walked up to the front of the classroom, and gave him a wink as he started the lecture. </t>
+  </si>
+  <si>
+    <t>“Alright, good afternoon, everyone!</t>
+  </si>
+  <si>
+    <t>Last week we talked about the structure of the periodic table, this week the topic is ions.</t>
+  </si>
+  <si>
+    <t>These atoms or molecules in which the number of electrons does not equal the number of protons.</t>
+  </si>
+  <si>
+    <t>Now, let me get my computer set up, one moment, class.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lana pulled out her Calculus problem set and puzzled over it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> While she was distracted, Aaron unzipped the small pocket in his backpack and pulled out the ring box.</t>
+  </si>
+  <si>
+    <t>He opened it up and looked at the ring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Instead of one large diamond, there were 5 diamonds embedded in a thick band. </t>
+  </si>
+  <si>
+    <t>He knew Lana would like this, because her preferred style was not flashy but more about simple elegance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaron put the ring back into the back as the professor began the lecture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Recall from previous lectures that the number of protons determines the identity of the element. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So for example, all atoms of sodium have 11 protons in the nucleus. </t>
+  </si>
+  <si>
+    <t>And if you look on the periodic table, the atomic number for sodium, the symbol is Na, remember, is eleven.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lana was taking notes, while Aaron was texting all of his friends in the class to get ready for when the proposal was going to happen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right after talking about how two ions bond into one stable molecule by covalent bonds, the professor stopped the lecture and asked Lana to come to the front of the class to do a demonstration. </t>
+  </si>
+  <si>
+    <t>She walked to the front of the class, confused, and the professor asked her to stand in the middle of the stage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then Aaron walked up and took Lana’s hand, getting down on one knee. </t>
+  </si>
+  <si>
+    <t>"Lana, it's time for us to make a bond of our own.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will you marry me?” </t>
+  </si>
+  <si>
+    <t>Lana gasped and put her other hand to her mouth, and started looking around the room as if trying to convince herself that this was really happening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a few moments everyone was in suspense waiting for the Lana’s shock to wear off and for her to answer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally, she said, “Yes!” and Aaron put the ring on her finger, and they hugged while the whole class clapped. </t>
+  </si>
+  <si>
+    <t>Their friends came up and hugged both of them, and the professor gave Aaron a celebratory handshake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They made their way back to their seats, Lana and Aaron hand-in-hand and beaming. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The professor then dismissed the class, saying, “That was enough excitement for today! Don’t forget there’s an exam next week on the first two chapters of the textbook.”</t>
+  </si>
+  <si>
+    <t>As everyone was packing up their stuff and leaving, Lana was already on her phone calling her family members to tell them the exciting news.</t>
   </si>
 </sst>
 </file>
@@ -184,7 +280,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -197,10 +293,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -209,13 +308,19 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,7 +1405,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1316,205 +1421,562 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
+    <row r="2" ht="140.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="80.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="104.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="140.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="104.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="44.05" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="80.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="92.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="56.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="56.05" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="92.05" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="44.05" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="80.05" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="92.05" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="56.05" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="92.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="56.05" customHeight="1">
+      <c r="A18" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="104.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="104.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="152.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="92.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="68.05" customHeight="1">
+      <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="B23" s="9">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="44.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="32.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="116.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="104.05" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="92.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="92.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="80.05" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="128.05" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="116.05" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/24.xlsx
+++ b/story_xlsx_files/24.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>storyText</t>
   </si>
@@ -23,28 +23,28 @@
     <t>socialEvent</t>
   </si>
   <si>
-    <t xml:space="preserve">Lana walked into lecture holding hands with her boyfriend Aaron, who was consciously trying not to hyperventilate and give away his plan to propose to Lana during class. </t>
+    <t xml:space="preserve">Lana walked into lecture holding hands with her boyfriend, Aaron, who was consciously trying not to hyperventilate and give away his plan to propose to Lana during class. </t>
   </si>
   <si>
     <t>Lana was lost in thought, still puzzling over a calculus problem on her problem set due that night.</t>
   </si>
   <si>
-    <t xml:space="preserve"> The lecture hall was the fanciest one at Harvard, with chandeliers, high ceilings, wood floors and double-decker chalkboards.</t>
+    <t xml:space="preserve"> The lecture hall was the fanciest one at Princeton, with chandeliers, high ceilings, wood floors and double-decker chalkboards.</t>
   </si>
   <si>
     <t xml:space="preserve"> This is where Aaron and Lana had met two years ago during an economics class, and now they were back together in the same lecture hall for their Chemistry class. </t>
   </si>
   <si>
-    <t xml:space="preserve">The professor caught Aaron's eye as he walked up to the front of the classroom, and gave him a wink as he started the lecture. </t>
+    <t xml:space="preserve">The professor caught Aaron's eye as he walked up to the front of the classroom and gave him a wink before the lecture began. </t>
   </si>
   <si>
     <t>“Alright, good afternoon, everyone!</t>
   </si>
   <si>
-    <t>Last week we talked about the structure of the periodic table, this week the topic is ions.</t>
-  </si>
-  <si>
-    <t>These atoms or molecules in which the number of electrons does not equal the number of protons.</t>
+    <t>Last week we talked about the structure of the periodic table, and this week the topic is ions.</t>
+  </si>
+  <si>
+    <t>These are atoms or molecules in which the number of electrons does not equal the number of protons.</t>
   </si>
   <si>
     <t>Now, let me get my computer set up, one moment, class.”</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve"> Lana pulled out her Calculus problem set and puzzled over it.</t>
   </si>
   <si>
-    <t xml:space="preserve"> While she was distracted, Aaron unzipped the small pocket in his backpack and pulled out the ring box.</t>
+    <t>While she was distracted, Aaron unzipped the small pocket in his backpack and pulled out the ring box.</t>
   </si>
   <si>
     <t>He opened it up and looked at the ring.</t>
@@ -62,10 +62,10 @@
     <t xml:space="preserve"> Instead of one large diamond, there were 5 diamonds embedded in a thick band. </t>
   </si>
   <si>
-    <t>He knew Lana would like this, because her preferred style was not flashy but more about simple elegance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aaron put the ring back into the back as the professor began the lecture. </t>
+    <t>He knew Lana would like this because her style was not flashy but more about simple elegance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron put the ring back into the bag as the professor began the lecture. </t>
   </si>
   <si>
     <t xml:space="preserve">“Recall from previous lectures that the number of protons determines the identity of the element. </t>
@@ -74,19 +74,19 @@
     <t xml:space="preserve">So for example, all atoms of sodium have 11 protons in the nucleus. </t>
   </si>
   <si>
-    <t>And if you look on the periodic table, the atomic number for sodium, the symbol is Na, remember, is eleven.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lana was taking notes, while Aaron was texting all of his friends in the class to get ready for when the proposal was going to happen. </t>
+    <t>And if you look on the periodic table, the atomic number for sodium, the symbol is Na, is eleven.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lana was taking notes while Aaron was texting all of his friends in the class to get ready for the proposal. </t>
   </si>
   <si>
     <t xml:space="preserve">Right after talking about how two ions bond into one stable molecule by covalent bonds, the professor stopped the lecture and asked Lana to come to the front of the class to do a demonstration. </t>
   </si>
   <si>
-    <t>She walked to the front of the class, confused, and the professor asked her to stand in the middle of the stage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then Aaron walked up and took Lana’s hand, getting down on one knee. </t>
+    <t>She walked to the front of the class confused, and the professor asked her to stand in the middle of the stage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then Aaron walked up and, taking Lana’s hand, got down on one knee. </t>
   </si>
   <si>
     <t>"Lana, it's time for us to make a bond of our own.</t>
@@ -95,13 +95,16 @@
     <t xml:space="preserve">Will you marry me?” </t>
   </si>
   <si>
-    <t>Lana gasped and put her other hand to her mouth, and started looking around the room as if trying to convince herself that this was really happening.</t>
+    <t>Lana gasped and put her other hand to her mouth and started looking around the room as if trying to convince herself that this was really happening.</t>
   </si>
   <si>
     <t xml:space="preserve">For a few moments everyone was in suspense waiting for the Lana’s shock to wear off and for her to answer. </t>
   </si>
   <si>
-    <t xml:space="preserve">Finally, she said, “Yes!” and Aaron put the ring on her finger, and they hugged while the whole class clapped. </t>
+    <t>Finally, she said, “Yes!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aaron put the ring on her finger, and they hugged while the whole class clapped. </t>
   </si>
   <si>
     <t>Their friends came up and hugged both of them, and the professor gave Aaron a celebratory handshake.</t>
@@ -110,7 +113,10 @@
     <t xml:space="preserve">They made their way back to their seats, Lana and Aaron hand-in-hand and beaming. </t>
   </si>
   <si>
-    <t xml:space="preserve"> The professor then dismissed the class, saying, “That was enough excitement for today! Don’t forget there’s an exam next week on the first two chapters of the textbook.”</t>
+    <t xml:space="preserve"> The professor then dismissed the class, saying, “That was enough excitement for today!</t>
+  </si>
+  <si>
+    <t>Don’t forget there’s an exam next week on the first two chapters of the textbook.”</t>
   </si>
   <si>
     <t>As everyone was packing up their stuff and leaving, Lana was already on her phone calling her family members to tell them the exciting news.</t>
@@ -1405,7 +1411,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1627,7 +1633,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" ht="92.05" customHeight="1">
+    <row r="15" ht="80.05" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>16</v>
       </c>
@@ -1687,7 +1693,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="104.05" customHeight="1">
+    <row r="19" ht="92.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
@@ -1702,7 +1708,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="104.05" customHeight="1">
+    <row r="20" ht="80.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
@@ -1822,7 +1828,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="92.05" customHeight="1">
+    <row r="28" ht="32.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
@@ -1837,7 +1843,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="92.05" customHeight="1">
+    <row r="29" ht="68.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>30</v>
       </c>
@@ -1852,7 +1858,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="80.05" customHeight="1">
+    <row r="30" ht="92.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
@@ -1867,12 +1873,12 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="128.05" customHeight="1">
+    <row r="31" ht="80.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>32</v>
       </c>
       <c r="B31" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="10">
         <v>4</v>
@@ -1882,7 +1888,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="116.05" customHeight="1">
+    <row r="32" ht="80.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>33</v>
       </c>
@@ -1897,19 +1903,31 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="11"/>
+    <row r="33" ht="68.05" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="11"/>
+    <row r="34" ht="116.05" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -1978,6 +1996,24 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/24.xlsx
+++ b/story_xlsx_files/24.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
@@ -23,22 +23,25 @@
     <t>socialEvent</t>
   </si>
   <si>
-    <t xml:space="preserve">Lana walked into lecture holding hands with her boyfriend, Aaron, who was consciously trying not to hyperventilate and give away his plan to propose to Lana during class. </t>
+    <t xml:space="preserve">Lana walked into lecture holding hands with her boyfriend, Aaron, who was trying to contain his excitement and anticipation for proposing to Lana in this class. </t>
   </si>
   <si>
     <t>Lana was lost in thought, still puzzling over a calculus problem on her problem set due that night.</t>
   </si>
   <si>
-    <t xml:space="preserve"> The lecture hall was the fanciest one at Princeton, with chandeliers, high ceilings, wood floors and double-decker chalkboards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This is where Aaron and Lana had met two years ago during an economics class, and now they were back together in the same lecture hall for their Chemistry class. </t>
+    <t>The lecture hall was the fanciest one at Princeton, with chandeliers, high ceilings, wood floors and double-decker chalkboards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is where Aaron and Lana had met two years ago during an economics class, and now they were back together in the same lecture hall for their Chemistry class. </t>
   </si>
   <si>
     <t xml:space="preserve">The professor caught Aaron's eye as he walked up to the front of the classroom and gave him a wink before the lecture began. </t>
   </si>
   <si>
-    <t>“Alright, good afternoon, everyone!</t>
+    <t xml:space="preserve">Aaron responded with a huge grin. </t>
+  </si>
+  <si>
+    <t>The professor cleared his throat and said,“Alright, good afternoon, everyone!</t>
   </si>
   <si>
     <t>Last week we talked about the structure of the periodic table, and this week the topic is ions.</t>
@@ -50,7 +53,7 @@
     <t>Now, let me get my computer set up, one moment, class.”</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lana pulled out her Calculus problem set and puzzled over it.</t>
+    <t>Lana pulled out her Calculus problem set and puzzled over it.</t>
   </si>
   <si>
     <t>While she was distracted, Aaron unzipped the small pocket in his backpack and pulled out the ring box.</t>
@@ -59,7 +62,7 @@
     <t>He opened it up and looked at the ring.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Instead of one large diamond, there were 5 diamonds embedded in a thick band. </t>
+    <t xml:space="preserve">Instead of one large diamond, there were 5 diamonds embedded in a thick band. </t>
   </si>
   <si>
     <t>He knew Lana would like this because her style was not flashy but more about simple elegance.</t>
@@ -113,13 +116,13 @@
     <t xml:space="preserve">They made their way back to their seats, Lana and Aaron hand-in-hand and beaming. </t>
   </si>
   <si>
-    <t xml:space="preserve"> The professor then dismissed the class, saying, “That was enough excitement for today!</t>
+    <t>The professor then dismissed the class, saying, “That was enough excitement for today!</t>
   </si>
   <si>
     <t>Don’t forget there’s an exam next week on the first two chapters of the textbook.”</t>
   </si>
   <si>
-    <t>As everyone was packing up their stuff and leaving, Lana was already on her phone calling her family members to tell them the exciting news.</t>
+    <t>As everyone was packing up their notebooks and leaving, Lana was already on her phone calling her family members to tell them the exciting news.</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1411,7 +1414,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1419,7 +1422,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1438,7 +1447,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="140.25" customHeight="1">
+    <row r="2" ht="128.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>3</v>
       </c>
@@ -1513,12 +1522,12 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="44.05" customHeight="1">
+    <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>8</v>
       </c>
       <c r="B7" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -1528,7 +1537,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="80.05" customHeight="1">
+    <row r="8" ht="68.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>9</v>
       </c>
@@ -1543,7 +1552,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="92.05" customHeight="1">
+    <row r="9" ht="80.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>10</v>
       </c>
@@ -1558,7 +1567,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="56.05" customHeight="1">
+    <row r="10" ht="92.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>11</v>
       </c>
@@ -1588,7 +1597,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="92.05" customHeight="1">
+    <row r="12" ht="56.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>13</v>
       </c>
@@ -1596,14 +1605,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="44.05" customHeight="1">
+    <row r="13" ht="92.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>14</v>
       </c>
@@ -1618,7 +1627,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="80.05" customHeight="1">
+    <row r="14" ht="44.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>15</v>
       </c>
@@ -1648,12 +1657,12 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="56.05" customHeight="1">
+    <row r="16" ht="80.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>17</v>
       </c>
       <c r="B16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -1663,7 +1672,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="92.05" customHeight="1">
+    <row r="17" ht="56.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>18</v>
       </c>
@@ -1678,7 +1687,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="56.05" customHeight="1">
+    <row r="18" ht="92.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>19</v>
       </c>
@@ -1693,7 +1702,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="92.05" customHeight="1">
+    <row r="19" ht="56.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>20</v>
       </c>
@@ -1708,7 +1717,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="80.05" customHeight="1">
+    <row r="20" ht="92.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>21</v>
       </c>
@@ -1723,7 +1732,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="152.05" customHeight="1">
+    <row r="21" ht="80.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>22</v>
       </c>
@@ -1738,7 +1747,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="92.05" customHeight="1">
+    <row r="22" ht="152.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>23</v>
       </c>
@@ -1753,7 +1762,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="68.05" customHeight="1">
+    <row r="23" ht="92.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>24</v>
       </c>
@@ -1761,14 +1770,14 @@
         <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="44.05" customHeight="1">
+    <row r="24" ht="68.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>25</v>
       </c>
@@ -1783,7 +1792,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="32.05" customHeight="1">
+    <row r="25" ht="44.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>26</v>
       </c>
@@ -1798,7 +1807,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="116.05" customHeight="1">
+    <row r="26" ht="32.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>27</v>
       </c>
@@ -1813,7 +1822,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="104.05" customHeight="1">
+    <row r="27" ht="116.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>28</v>
       </c>
@@ -1828,7 +1837,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="32.05" customHeight="1">
+    <row r="28" ht="104.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>29</v>
       </c>
@@ -1836,14 +1845,14 @@
         <v>3</v>
       </c>
       <c r="C28" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="68.05" customHeight="1">
+    <row r="29" ht="32.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>30</v>
       </c>
@@ -1858,7 +1867,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="92.05" customHeight="1">
+    <row r="30" ht="68.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
@@ -1873,7 +1882,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="80.05" customHeight="1">
+    <row r="31" ht="92.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>32</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="10">
         <v>4</v>
@@ -1903,7 +1912,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="68.05" customHeight="1">
+    <row r="33" ht="80.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>34</v>
       </c>
@@ -1918,7 +1927,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="116.05" customHeight="1">
+    <row r="34" ht="68.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>35</v>
       </c>
@@ -1933,10 +1942,16 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="11"/>
+    <row r="35" ht="116.05" customHeight="1">
+      <c r="A35" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -2014,6 +2029,15 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/24.xlsx
+++ b/story_xlsx_files/24.xlsx
@@ -92,7 +92,7 @@
     <t xml:space="preserve">Then Aaron walked up and, taking Lana’s hand, got down on one knee. </t>
   </si>
   <si>
-    <t>"Lana, it's time for us to make a bond of our own.</t>
+    <t>"It's time for us to make a bond of our own, Lana.</t>
   </si>
   <si>
     <t xml:space="preserve">Will you marry me?” </t>
@@ -136,7 +136,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1422,13 +1422,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/story_xlsx_files/24.xlsx
+++ b/story_xlsx_files/24.xlsx
@@ -92,7 +92,7 @@
     <t xml:space="preserve">Then Aaron walked up and, taking Lana’s hand, got down on one knee. </t>
   </si>
   <si>
-    <t>"It's time for us to make a bond of our own, Lana.</t>
+    <t>“It's time for us to make a bond of our own, Lana.</t>
   </si>
   <si>
     <t xml:space="preserve">Will you marry me?” </t>

--- a/story_xlsx_files/24.xlsx
+++ b/story_xlsx_files/24.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <t xml:space="preserve">Lana walked into lecture holding hands with her boyfriend, Aaron, who was trying to contain his excitement and anticipation for proposing to Lana in this class. </t>
@@ -136,7 +139,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1422,7 +1425,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1436,14 +1445,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="128.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1451,14 +1462,16 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6">
+        <v>24</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" ht="80.05" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -1473,7 +1486,7 @@
     </row>
     <row r="4" ht="104.05" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="9">
         <v>1</v>
@@ -1488,7 +1501,7 @@
     </row>
     <row r="5" ht="140.05" customHeight="1">
       <c r="A5" t="s" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -1503,7 +1516,7 @@
     </row>
     <row r="6" ht="104.05" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -1518,7 +1531,7 @@
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -1533,7 +1546,7 @@
     </row>
     <row r="8" ht="68.05" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9">
         <v>2</v>
@@ -1548,7 +1561,7 @@
     </row>
     <row r="9" ht="80.05" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
@@ -1563,7 +1576,7 @@
     </row>
     <row r="10" ht="92.05" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
@@ -1578,7 +1591,7 @@
     </row>
     <row r="11" ht="56.05" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
@@ -1593,7 +1606,7 @@
     </row>
     <row r="12" ht="56.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -1608,7 +1621,7 @@
     </row>
     <row r="13" ht="92.05" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
@@ -1623,7 +1636,7 @@
     </row>
     <row r="14" ht="44.05" customHeight="1">
       <c r="A14" t="s" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
@@ -1638,7 +1651,7 @@
     </row>
     <row r="15" ht="80.05" customHeight="1">
       <c r="A15" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9">
         <v>2</v>
@@ -1653,7 +1666,7 @@
     </row>
     <row r="16" ht="80.05" customHeight="1">
       <c r="A16" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9">
         <v>2</v>
@@ -1668,7 +1681,7 @@
     </row>
     <row r="17" ht="56.05" customHeight="1">
       <c r="A17" t="s" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="9">
         <v>3</v>
@@ -1683,7 +1696,7 @@
     </row>
     <row r="18" ht="92.05" customHeight="1">
       <c r="A18" t="s" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9">
         <v>3</v>
@@ -1698,7 +1711,7 @@
     </row>
     <row r="19" ht="56.05" customHeight="1">
       <c r="A19" t="s" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9">
         <v>3</v>
@@ -1713,7 +1726,7 @@
     </row>
     <row r="20" ht="92.05" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="9">
         <v>3</v>
@@ -1728,7 +1741,7 @@
     </row>
     <row r="21" ht="80.05" customHeight="1">
       <c r="A21" t="s" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="9">
         <v>3</v>
@@ -1743,7 +1756,7 @@
     </row>
     <row r="22" ht="152.05" customHeight="1">
       <c r="A22" t="s" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9">
         <v>3</v>
@@ -1758,7 +1771,7 @@
     </row>
     <row r="23" ht="92.05" customHeight="1">
       <c r="A23" t="s" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="9">
         <v>3</v>
@@ -1773,7 +1786,7 @@
     </row>
     <row r="24" ht="68.05" customHeight="1">
       <c r="A24" t="s" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="9">
         <v>3</v>
@@ -1788,7 +1801,7 @@
     </row>
     <row r="25" ht="44.05" customHeight="1">
       <c r="A25" t="s" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="9">
         <v>3</v>
@@ -1803,7 +1816,7 @@
     </row>
     <row r="26" ht="32.05" customHeight="1">
       <c r="A26" t="s" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="9">
         <v>3</v>
@@ -1818,7 +1831,7 @@
     </row>
     <row r="27" ht="116.05" customHeight="1">
       <c r="A27" t="s" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9">
         <v>3</v>
@@ -1833,7 +1846,7 @@
     </row>
     <row r="28" ht="104.05" customHeight="1">
       <c r="A28" t="s" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="9">
         <v>3</v>
@@ -1848,7 +1861,7 @@
     </row>
     <row r="29" ht="32.05" customHeight="1">
       <c r="A29" t="s" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="9">
         <v>3</v>
@@ -1863,7 +1876,7 @@
     </row>
     <row r="30" ht="68.05" customHeight="1">
       <c r="A30" t="s" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="9">
         <v>3</v>
@@ -1878,7 +1891,7 @@
     </row>
     <row r="31" ht="92.05" customHeight="1">
       <c r="A31" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="9">
         <v>3</v>
@@ -1893,7 +1906,7 @@
     </row>
     <row r="32" ht="80.05" customHeight="1">
       <c r="A32" t="s" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="9">
         <v>3</v>
@@ -1908,7 +1921,7 @@
     </row>
     <row r="33" ht="80.05" customHeight="1">
       <c r="A33" t="s" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="9">
         <v>4</v>
@@ -1923,7 +1936,7 @@
     </row>
     <row r="34" ht="68.05" customHeight="1">
       <c r="A34" t="s" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="9">
         <v>4</v>
@@ -1938,7 +1951,7 @@
     </row>
     <row r="35" ht="116.05" customHeight="1">
       <c r="A35" t="s" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="9">
         <v>4</v>

--- a/story_xlsx_files/24.xlsx
+++ b/story_xlsx_files/24.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>storyText</t>
   </si>
@@ -32,19 +32,19 @@
     <t>Lana was lost in thought, still puzzling over a calculus problem on her problem set due that night.</t>
   </si>
   <si>
-    <t>The lecture hall was the fanciest one at Princeton, with chandeliers, high ceilings, wood floors and double-decker chalkboards.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is where Aaron and Lana had met two years ago during an economics class, and now they were back together in the same lecture hall for their Chemistry class. </t>
+    <t xml:space="preserve">The lecture hall was the fanciest one at Princeton, with chandeliers, high ceilings, wood floors and a large projector screen where chalkboards used to be. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is where Aaron and Lana had met when they first started dating three years ago in freshman year, and now they were back together in the same lecture hall for a class they had chosen to take together. </t>
   </si>
   <si>
     <t xml:space="preserve">The professor caught Aaron's eye as he walked up to the front of the classroom and gave him a wink before the lecture began. </t>
   </si>
   <si>
-    <t xml:space="preserve">Aaron responded with a huge grin. </t>
-  </si>
-  <si>
-    <t>The professor cleared his throat and said,“Alright, good afternoon, everyone!</t>
+    <t xml:space="preserve">Aaron flashed him a half-smile and nodded. </t>
+  </si>
+  <si>
+    <t>The professor cleared his throat to begin the class and said,“Alright, good afternoon, everyone!</t>
   </si>
   <si>
     <t>Last week we talked about the structure of the periodic table, and this week the topic is ions.</t>
@@ -65,10 +65,10 @@
     <t>He opened it up and looked at the ring.</t>
   </si>
   <si>
-    <t xml:space="preserve">Instead of one large diamond, there were 5 diamonds embedded in a thick band. </t>
-  </si>
-  <si>
-    <t>He knew Lana would like this because her style was not flashy but more about simple elegance.</t>
+    <t xml:space="preserve">Instead of one large diamond, there were 5 red diamonds embedded in a thick band. </t>
+  </si>
+  <si>
+    <t>He knew Lana would like this because her style was more avant grad than traditional.</t>
   </si>
   <si>
     <t xml:space="preserve">Aaron put the ring back into the bag as the professor began the lecture. </t>
@@ -95,7 +95,13 @@
     <t xml:space="preserve">Then Aaron walked up and, taking Lana’s hand, got down on one knee. </t>
   </si>
   <si>
-    <t>“It's time for us to make a bond of our own, Lana.</t>
+    <t xml:space="preserve">The professor quickly switched to the last slide on the powerpoint which was a photo collage of pictures of Aaron and Lana which Aaron had sent the professor previously. </t>
+  </si>
+  <si>
+    <t>“It's time for us to make a bond of our own, Lana.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He opens the small notebook he has in his hand and the ring is sitting on the page. </t>
   </si>
   <si>
     <t xml:space="preserve">Will you marry me?” </t>
@@ -119,13 +125,16 @@
     <t xml:space="preserve">They made their way back to their seats, Lana and Aaron hand-in-hand and beaming. </t>
   </si>
   <si>
+    <t xml:space="preserve">When they got back to their seats, Lana pulled out her phone to text her sister. </t>
+  </si>
+  <si>
     <t>The professor then dismissed the class, saying, “That was enough excitement for today!</t>
   </si>
   <si>
-    <t>Don’t forget there’s an exam next week on the first two chapters of the textbook.”</t>
-  </si>
-  <si>
-    <t>As everyone was packing up their notebooks and leaving, Lana was already on her phone calling her family members to tell them the exciting news.</t>
+    <t>Don’t forget there’s a midterm exam next week on Monday on the material covered in the first 4 weeks of the semester.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As everyone was packing up their notebooks and leaving, Lana and Aaron were surrounded by their friends eager to get a glimpse of the ring and congratulate them. </t>
   </si>
 </sst>
 </file>
@@ -139,7 +148,7 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue Medium"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1417,7 +1426,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1425,13 +1434,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1484,7 +1487,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="104.05" customHeight="1">
+    <row r="4" ht="128.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1499,7 +1502,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="140.05" customHeight="1">
+    <row r="5" ht="164.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1529,7 +1532,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="32.05" customHeight="1">
+    <row r="7" ht="44.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1544,7 +1547,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="68.05" customHeight="1">
+    <row r="8" ht="80.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
@@ -1799,7 +1802,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="44.05" customHeight="1">
+    <row r="25" ht="128.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1814,7 +1817,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="32.05" customHeight="1">
+    <row r="26" ht="44.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1829,7 +1832,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="116.05" customHeight="1">
+    <row r="27" ht="80.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1844,7 +1847,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="104.05" customHeight="1">
+    <row r="28" ht="32.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
@@ -1859,7 +1862,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="32.05" customHeight="1">
+    <row r="29" ht="116.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
@@ -1867,14 +1870,14 @@
         <v>3</v>
       </c>
       <c r="C29" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="68.05" customHeight="1">
+    <row r="30" ht="104.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1882,14 +1885,14 @@
         <v>3</v>
       </c>
       <c r="C30" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="92.05" customHeight="1">
+    <row r="31" ht="32.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1904,7 +1907,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="80.05" customHeight="1">
+    <row r="32" ht="68.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1919,12 +1922,12 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="80.05" customHeight="1">
+    <row r="33" ht="92.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
       <c r="B33" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="10">
         <v>4</v>
@@ -1934,12 +1937,12 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="68.05" customHeight="1">
+    <row r="34" ht="80.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
       <c r="B34" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="10">
         <v>4</v>
@@ -1949,12 +1952,12 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="116.05" customHeight="1">
+    <row r="35" ht="68.05" customHeight="1">
       <c r="A35" t="s" s="8">
         <v>37</v>
       </c>
       <c r="B35" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="10">
         <v>4</v>
@@ -1964,28 +1967,46 @@
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="11"/>
+    <row r="36" ht="80.05" customHeight="1">
+      <c r="A36" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="B36" s="9">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4</v>
+      </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="11"/>
+    <row r="37" ht="104.05" customHeight="1">
+      <c r="A37" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B37" s="9">
+        <v>4</v>
+      </c>
+      <c r="C37" s="10">
+        <v>4</v>
+      </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="11"/>
+    <row r="38" ht="140.05" customHeight="1">
+      <c r="A38" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9">
+        <v>4</v>
+      </c>
+      <c r="C38" s="10">
+        <v>4</v>
+      </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -2045,6 +2066,33 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/24.xlsx
+++ b/story_xlsx_files/24.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
@@ -26,10 +26,10 @@
     <t>story</t>
   </si>
   <si>
-    <t xml:space="preserve">Lana walked into lecture holding hands with her boyfriend, Aaron, who was trying to contain his excitement and anticipation for proposing to Lana in this class. </t>
-  </si>
-  <si>
-    <t>Lana was lost in thought, still puzzling over a calculus problem on her problem set due that night.</t>
+    <t xml:space="preserve">Lana walked into lecture holding hands with her boyfriend, Aaron, who was trying to contain his excitement to propose to Lana in class. </t>
+  </si>
+  <si>
+    <t>Lana was lost in thought, puzzling over a calculus problem on her problem set due that night.</t>
   </si>
   <si>
     <t xml:space="preserve">The lecture hall was the fanciest one at Princeton, with chandeliers, high ceilings, wood floors and a large projector screen where chalkboards used to be. </t>
@@ -44,37 +44,31 @@
     <t xml:space="preserve">Aaron flashed him a half-smile and nodded. </t>
   </si>
   <si>
-    <t>The professor cleared his throat to begin the class and said,“Alright, good afternoon, everyone!</t>
+    <t>The professor cleared his throat and said,“Alright, good afternoon, everyone!</t>
+  </si>
+  <si>
+    <t>Welcome to another week of Introduction to Chemistry</t>
   </si>
   <si>
     <t>Last week we talked about the structure of the periodic table, and this week the topic is ions.</t>
   </si>
   <si>
-    <t>These are atoms or molecules in which the number of electrons does not equal the number of protons.</t>
-  </si>
-  <si>
     <t>Now, let me get my computer set up, one moment, class.”</t>
   </si>
   <si>
-    <t>Lana pulled out her Calculus problem set and puzzled over it.</t>
-  </si>
-  <si>
-    <t>While she was distracted, Aaron unzipped the small pocket in his backpack and pulled out the ring box.</t>
-  </si>
-  <si>
-    <t>He opened it up and looked at the ring.</t>
+    <t>Lana pulled out the Calculus problem set as Aaron unzipped the small pocket in his backpack and pulled out the ring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turning away from her, he looked it over yet again. </t>
   </si>
   <si>
     <t xml:space="preserve">Instead of one large diamond, there were 5 red diamonds embedded in a thick band. </t>
   </si>
   <si>
-    <t>He knew Lana would like this because her style was more avant grad than traditional.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aaron put the ring back into the bag as the professor began the lecture. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Recall from previous lectures that the number of protons determines the identity of the element. </t>
+    <t>He knew Lana would like this because her style was more avant-garde than traditional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The professor said,  “Recall from previous lectures that the number of protons determines the identity of the element. </t>
   </si>
   <si>
     <t xml:space="preserve">So for example, all atoms of sodium have 11 protons in the nucleus. </t>
@@ -83,9 +77,6 @@
     <t>And if you look on the periodic table, the atomic number for sodium, the symbol is Na, is eleven.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Lana was taking notes while Aaron was texting all of his friends in the class to get ready for the proposal. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Right after talking about how two ions bond into one stable molecule by covalent bonds, the professor stopped the lecture and asked Lana to come to the front of the class to do a demonstration. </t>
   </si>
   <si>
@@ -107,13 +98,10 @@
     <t xml:space="preserve">Will you marry me?” </t>
   </si>
   <si>
-    <t>Lana gasped and put her other hand to her mouth and started looking around the room as if trying to convince herself that this was really happening.</t>
-  </si>
-  <si>
     <t xml:space="preserve">For a few moments everyone was in suspense waiting for the Lana’s shock to wear off and for her to answer. </t>
   </si>
   <si>
-    <t>Finally, she said, “Yes!”</t>
+    <t>Lana had put her hand over her mouth and tears were streaming down her face, but finally, she said, “Yes!”</t>
   </si>
   <si>
     <t xml:space="preserve">Aaron put the ring on her finger, and they hugged while the whole class clapped. </t>
@@ -1426,7 +1414,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1455,7 +1443,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="128.25" customHeight="1">
+    <row r="2" ht="116.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
@@ -1547,7 +1535,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="80.05" customHeight="1">
+    <row r="8" ht="68.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
@@ -1562,7 +1550,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="80.05" customHeight="1">
+    <row r="9" ht="56.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1577,7 +1565,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="92.05" customHeight="1">
+    <row r="10" ht="80.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1607,7 +1595,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="56.05" customHeight="1">
+    <row r="12" ht="104.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1615,14 +1603,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="92.05" customHeight="1">
+    <row r="13" ht="44.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1637,7 +1625,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="44.05" customHeight="1">
+    <row r="14" ht="80.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
@@ -1667,12 +1655,12 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="80.05" customHeight="1">
+    <row r="16" ht="104.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
       <c r="B16" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -1712,7 +1700,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="56.05" customHeight="1">
+    <row r="19" ht="152.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1720,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1735,14 +1723,14 @@
         <v>3</v>
       </c>
       <c r="C20" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="80.05" customHeight="1">
+    <row r="21" ht="68.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1750,14 +1738,14 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="152.05" customHeight="1">
+    <row r="22" ht="128.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1765,14 +1753,14 @@
         <v>3</v>
       </c>
       <c r="C22" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="92.05" customHeight="1">
+    <row r="23" ht="44.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1780,14 +1768,14 @@
         <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="68.05" customHeight="1">
+    <row r="24" ht="80.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1802,7 +1790,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="128.05" customHeight="1">
+    <row r="25" ht="32.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1817,7 +1805,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="44.05" customHeight="1">
+    <row r="26" ht="104.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1832,7 +1820,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="80.05" customHeight="1">
+    <row r="27" ht="92.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1840,14 +1828,14 @@
         <v>3</v>
       </c>
       <c r="C27" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="32.05" customHeight="1">
+    <row r="28" ht="68.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
@@ -1855,14 +1843,14 @@
         <v>3</v>
       </c>
       <c r="C28" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" ht="116.05" customHeight="1">
+    <row r="29" ht="92.05" customHeight="1">
       <c r="A29" t="s" s="8">
         <v>31</v>
       </c>
@@ -1870,14 +1858,14 @@
         <v>3</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" ht="104.05" customHeight="1">
+    <row r="30" ht="80.05" customHeight="1">
       <c r="A30" t="s" s="8">
         <v>32</v>
       </c>
@@ -1885,14 +1873,14 @@
         <v>3</v>
       </c>
       <c r="C30" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="32.05" customHeight="1">
+    <row r="31" ht="68.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
@@ -1907,12 +1895,12 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="68.05" customHeight="1">
+    <row r="32" ht="80.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
       <c r="B32" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="10">
         <v>4</v>
@@ -1922,12 +1910,12 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="92.05" customHeight="1">
+    <row r="33" ht="104.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
       <c r="B33" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="10">
         <v>4</v>
@@ -1937,12 +1925,12 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="80.05" customHeight="1">
+    <row r="34" ht="140.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
       <c r="B34" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="10">
         <v>4</v>
@@ -1952,61 +1940,37 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="68.05" customHeight="1">
-      <c r="A35" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B35" s="9">
-        <v>3</v>
-      </c>
-      <c r="C35" s="10">
-        <v>4</v>
-      </c>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="80.05" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="B36" s="9">
-        <v>4</v>
-      </c>
-      <c r="C36" s="10">
-        <v>4</v>
-      </c>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" ht="104.05" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B37" s="9">
-        <v>4</v>
-      </c>
-      <c r="C37" s="10">
-        <v>4</v>
-      </c>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" ht="140.05" customHeight="1">
-      <c r="A38" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B38" s="9">
-        <v>4</v>
-      </c>
-      <c r="C38" s="10">
-        <v>4</v>
-      </c>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -2057,42 +2021,6 @@
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
     </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/24.xlsx
+++ b/story_xlsx_files/24.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>storyText</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Lana walked into lecture holding hands with her boyfriend, Aaron, who was trying to contain his excitement to propose to Lana in class. </t>
   </si>
   <si>
-    <t>Lana was lost in thought, puzzling over a calculus problem on her problem set due that night.</t>
+    <t>Lana was lost in thought, puzzling over an integral on her problem set due that night.</t>
   </si>
   <si>
     <t xml:space="preserve">The lecture hall was the fanciest one at Princeton, with chandeliers, high ceilings, wood floors and a large projector screen where chalkboards used to be. </t>
@@ -56,7 +56,7 @@
     <t>Now, let me get my computer set up, one moment, class.”</t>
   </si>
   <si>
-    <t>Lana pulled out the Calculus problem set as Aaron unzipped the small pocket in his backpack and pulled out the ring.</t>
+    <t>Lana pulled out the problem set as Aaron unzipped the small pocket in his backpack and pulled out the ring.</t>
   </si>
   <si>
     <t xml:space="preserve">Turning away from her, he looked it over yet again. </t>
@@ -77,6 +77,9 @@
     <t>And if you look on the periodic table, the atomic number for sodium, the symbol is Na, is eleven.”</t>
   </si>
   <si>
+    <t xml:space="preserve">Lana and Aaron tried to take notes during the lecture even though they had other thoughts on their minds. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Right after talking about how two ions bond into one stable molecule by covalent bonds, the professor stopped the lecture and asked Lana to come to the front of the class to do a demonstration. </t>
   </si>
   <si>
@@ -92,28 +95,22 @@
     <t>“It's time for us to make a bond of our own, Lana.”</t>
   </si>
   <si>
-    <t xml:space="preserve">He opens the small notebook he has in his hand and the ring is sitting on the page. </t>
+    <t xml:space="preserve">He opened the small notebook he had in his hand and the ring was sitting on the page. </t>
   </si>
   <si>
     <t xml:space="preserve">Will you marry me?” </t>
   </si>
   <si>
-    <t xml:space="preserve">For a few moments everyone was in suspense waiting for the Lana’s shock to wear off and for her to answer. </t>
-  </si>
-  <si>
     <t>Lana had put her hand over her mouth and tears were streaming down her face, but finally, she said, “Yes!”</t>
   </si>
   <si>
-    <t xml:space="preserve">Aaron put the ring on her finger, and they hugged while the whole class clapped. </t>
+    <t xml:space="preserve">Aaron put the ring on her finger, and they hugged while the whole class applauded and cheered. </t>
   </si>
   <si>
     <t>Their friends came up and hugged both of them, and the professor gave Aaron a celebratory handshake.</t>
   </si>
   <si>
-    <t xml:space="preserve">They made their way back to their seats, Lana and Aaron hand-in-hand and beaming. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When they got back to their seats, Lana pulled out her phone to text her sister. </t>
+    <t>They made their way back to their seats, and Lana pulled out her phone to text her sister</t>
   </si>
   <si>
     <t>The professor then dismissed the class, saying, “That was enough excitement for today!</t>
@@ -1414,7 +1411,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1460,7 +1457,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="80.05" customHeight="1">
+    <row r="3" ht="68.05" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
@@ -1595,7 +1592,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="104.05" customHeight="1">
+    <row r="12" ht="92.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1700,7 +1697,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" ht="152.05" customHeight="1">
+    <row r="19" ht="92.05" customHeight="1">
       <c r="A19" t="s" s="8">
         <v>21</v>
       </c>
@@ -1708,14 +1705,14 @@
         <v>3</v>
       </c>
       <c r="C19" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="92.05" customHeight="1">
+    <row r="20" ht="152.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1730,7 +1727,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="68.05" customHeight="1">
+    <row r="21" ht="92.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1745,7 +1742,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="128.05" customHeight="1">
+    <row r="22" ht="68.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1760,7 +1757,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="44.05" customHeight="1">
+    <row r="23" ht="128.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1775,7 +1772,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="80.05" customHeight="1">
+    <row r="24" ht="44.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1790,7 +1787,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="32.05" customHeight="1">
+    <row r="25" ht="80.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1805,7 +1802,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="104.05" customHeight="1">
+    <row r="26" ht="32.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1835,7 +1832,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="68.05" customHeight="1">
+    <row r="28" ht="80.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
@@ -1880,12 +1877,12 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="68.05" customHeight="1">
+    <row r="31" ht="80.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
       <c r="B31" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31" s="10">
         <v>4</v>
@@ -1895,7 +1892,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="80.05" customHeight="1">
+    <row r="32" ht="104.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
@@ -1910,7 +1907,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="104.05" customHeight="1">
+    <row r="33" ht="140.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
@@ -1925,16 +1922,10 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="140.05" customHeight="1">
-      <c r="A34" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9">
-        <v>4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2012,15 +2003,6 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/24.xlsx
+++ b/story_xlsx_files/24.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>storyText</t>
   </si>
@@ -26,16 +26,19 @@
     <t>story</t>
   </si>
   <si>
-    <t xml:space="preserve">Lana walked into lecture holding hands with her boyfriend, Aaron, who was trying to contain his excitement to propose to Lana in class. </t>
-  </si>
-  <si>
-    <t>Lana was lost in thought, puzzling over an integral on her problem set due that night.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lecture hall was the fanciest one at Princeton, with chandeliers, high ceilings, wood floors and a large projector screen where chalkboards used to be. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is where Aaron and Lana had met when they first started dating three years ago in freshman year, and now they were back together in the same lecture hall for a class they had chosen to take together. </t>
+    <t>Lana walked into lecture holding hands with her boyfriend, Aaron, who was trying to contain his excitement about proposing to Lana in this class.</t>
+  </si>
+  <si>
+    <t>Lana was lost in thought, puzzling over an integral on her problem set for another class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lecture hall they had entered was the fanciest one at Princeton, with chandeliers, high ceilings, wood floors, and a large projector screen where chalkboards used to be. </t>
+  </si>
+  <si>
+    <t>Aaron and Lana had met when they first started dating three years ago in freshman year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They coincidentally had another class together in this same lecture hall. </t>
   </si>
   <si>
     <t xml:space="preserve">The professor caught Aaron's eye as he walked up to the front of the classroom and gave him a wink before the lecture began. </t>
@@ -50,13 +53,13 @@
     <t>Welcome to another week of Introduction to Chemistry</t>
   </si>
   <si>
-    <t>Last week we talked about the structure of the periodic table, and this week the topic is ions.</t>
+    <t>This week the topic is ions.</t>
   </si>
   <si>
     <t>Now, let me get my computer set up, one moment, class.”</t>
   </si>
   <si>
-    <t>Lana pulled out the problem set as Aaron unzipped the small pocket in his backpack and pulled out the ring.</t>
+    <t>Lana pulled out the problem set she was thinking about as Aaron unzipped the small pocket in his backpack and pulled out the ring.</t>
   </si>
   <si>
     <t xml:space="preserve">Turning away from her, he looked it over yet again. </t>
@@ -68,19 +71,22 @@
     <t>He knew Lana would like this because her style was more avant-garde than traditional.</t>
   </si>
   <si>
-    <t xml:space="preserve">The professor said,  “Recall from previous lectures that the number of protons determines the identity of the element. </t>
+    <t xml:space="preserve">The professor said, “Remember, class, that the number of protons determines the identity of the element. </t>
   </si>
   <si>
     <t xml:space="preserve">So for example, all atoms of sodium have 11 protons in the nucleus. </t>
   </si>
   <si>
-    <t>And if you look on the periodic table, the atomic number for sodium, the symbol is Na, is eleven.”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lana and Aaron tried to take notes during the lecture even though they had other thoughts on their minds. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right after talking about how two ions bond into one stable molecule by covalent bonds, the professor stopped the lecture and asked Lana to come to the front of the class to do a demonstration. </t>
+    <t>And if you look on the periodic table, the atomic number for sodium, the symbol is Na, is eleven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ion retains the same number of protons despite losing electrons, and therefore keeps the same identity in the periodic table. </t>
+  </si>
+  <si>
+    <t>Lana and Aaron tried to take notes during the lecture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right after talking about how two ions bond into one stable molecule by covalent bonds, the professor stopped the lecture, gave another wink to Aaron, and asked Lana to come to the front of the class to do a demonstration. </t>
   </si>
   <si>
     <t>She walked to the front of the class confused, and the professor asked her to stand in the middle of the stage.</t>
@@ -89,7 +95,7 @@
     <t xml:space="preserve">Then Aaron walked up and, taking Lana’s hand, got down on one knee. </t>
   </si>
   <si>
-    <t xml:space="preserve">The professor quickly switched to the last slide on the powerpoint which was a photo collage of pictures of Aaron and Lana which Aaron had sent the professor previously. </t>
+    <t xml:space="preserve">The professor quickly switched to the last slide on the powerpoint which was a photo collage Aaron had sent him of pictures of Aaron and Lana. </t>
   </si>
   <si>
     <t>“It's time for us to make a bond of our own, Lana.”</t>
@@ -98,7 +104,7 @@
     <t xml:space="preserve">He opened the small notebook he had in his hand and the ring was sitting on the page. </t>
   </si>
   <si>
-    <t xml:space="preserve">Will you marry me?” </t>
+    <t xml:space="preserve">“Will you marry me?” </t>
   </si>
   <si>
     <t>Lana had put her hand over her mouth and tears were streaming down her face, but finally, she said, “Yes!”</t>
@@ -107,13 +113,16 @@
     <t xml:space="preserve">Aaron put the ring on her finger, and they hugged while the whole class applauded and cheered. </t>
   </si>
   <si>
-    <t>Their friends came up and hugged both of them, and the professor gave Aaron a celebratory handshake.</t>
+    <t>Their friends who had been secretly waiting outside came into the class and hugged both of them.</t>
+  </si>
+  <si>
+    <t>The professor gave Aaron a celebratory handshake.</t>
   </si>
   <si>
     <t>They made their way back to their seats, and Lana pulled out her phone to text her sister</t>
   </si>
   <si>
-    <t>The professor then dismissed the class, saying, “That was enough excitement for today!</t>
+    <t>The professor dismissed the class, saying, “That was enough excitement for today!</t>
   </si>
   <si>
     <t>Don’t forget there’s a midterm exam next week on Monday on the material covered in the first 4 weeks of the semester.</t>
@@ -1411,7 +1420,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1472,7 +1481,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" ht="128.05" customHeight="1">
+    <row r="4" ht="140.05" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
@@ -1487,7 +1496,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" ht="164.05" customHeight="1">
+    <row r="5" ht="80.05" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
@@ -1502,7 +1511,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="104.05" customHeight="1">
+    <row r="6" ht="68.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
@@ -1517,7 +1526,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" ht="44.05" customHeight="1">
+    <row r="7" ht="104.05" customHeight="1">
       <c r="A7" t="s" s="8">
         <v>9</v>
       </c>
@@ -1532,12 +1541,12 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" ht="68.05" customHeight="1">
+    <row r="8" ht="44.05" customHeight="1">
       <c r="A8" t="s" s="8">
         <v>10</v>
       </c>
       <c r="B8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -1547,7 +1556,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" ht="56.05" customHeight="1">
+    <row r="9" ht="68.05" customHeight="1">
       <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
@@ -1562,7 +1571,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" ht="80.05" customHeight="1">
+    <row r="10" ht="56.05" customHeight="1">
       <c r="A10" t="s" s="8">
         <v>12</v>
       </c>
@@ -1577,7 +1586,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" ht="56.05" customHeight="1">
+    <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>13</v>
       </c>
@@ -1592,7 +1601,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="92.05" customHeight="1">
+    <row r="12" ht="56.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1600,14 +1609,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" ht="44.05" customHeight="1">
+    <row r="13" ht="104.05" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>15</v>
       </c>
@@ -1622,7 +1631,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" ht="80.05" customHeight="1">
+    <row r="14" ht="44.05" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>16</v>
       </c>
@@ -1652,12 +1661,12 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" ht="104.05" customHeight="1">
+    <row r="16" ht="80.05" customHeight="1">
       <c r="A16" t="s" s="8">
         <v>18</v>
       </c>
       <c r="B16" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -1667,7 +1676,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" ht="56.05" customHeight="1">
+    <row r="17" ht="92.05" customHeight="1">
       <c r="A17" t="s" s="8">
         <v>19</v>
       </c>
@@ -1682,7 +1691,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" ht="92.05" customHeight="1">
+    <row r="18" ht="56.05" customHeight="1">
       <c r="A18" t="s" s="8">
         <v>20</v>
       </c>
@@ -1712,7 +1721,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="152.05" customHeight="1">
+    <row r="20" ht="104.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
@@ -1720,14 +1729,14 @@
         <v>3</v>
       </c>
       <c r="C20" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" ht="92.05" customHeight="1">
+    <row r="21" ht="44.05" customHeight="1">
       <c r="A21" t="s" s="8">
         <v>23</v>
       </c>
@@ -1735,14 +1744,14 @@
         <v>3</v>
       </c>
       <c r="C21" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" ht="68.05" customHeight="1">
+    <row r="22" ht="176.05" customHeight="1">
       <c r="A22" t="s" s="8">
         <v>24</v>
       </c>
@@ -1757,7 +1766,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" ht="128.05" customHeight="1">
+    <row r="23" ht="92.05" customHeight="1">
       <c r="A23" t="s" s="8">
         <v>25</v>
       </c>
@@ -1772,7 +1781,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" ht="44.05" customHeight="1">
+    <row r="24" ht="68.05" customHeight="1">
       <c r="A24" t="s" s="8">
         <v>26</v>
       </c>
@@ -1787,7 +1796,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" ht="80.05" customHeight="1">
+    <row r="25" ht="116.05" customHeight="1">
       <c r="A25" t="s" s="8">
         <v>27</v>
       </c>
@@ -1802,7 +1811,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" ht="32.05" customHeight="1">
+    <row r="26" ht="44.05" customHeight="1">
       <c r="A26" t="s" s="8">
         <v>28</v>
       </c>
@@ -1817,7 +1826,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" ht="92.05" customHeight="1">
+    <row r="27" ht="80.05" customHeight="1">
       <c r="A27" t="s" s="8">
         <v>29</v>
       </c>
@@ -1825,14 +1834,14 @@
         <v>3</v>
       </c>
       <c r="C27" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" ht="80.05" customHeight="1">
+    <row r="28" ht="32.05" customHeight="1">
       <c r="A28" t="s" s="8">
         <v>30</v>
       </c>
@@ -1840,7 +1849,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1882,7 +1891,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="10">
         <v>4</v>
@@ -1892,12 +1901,12 @@
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" ht="104.05" customHeight="1">
+    <row r="32" ht="56.05" customHeight="1">
       <c r="A32" t="s" s="8">
         <v>34</v>
       </c>
       <c r="B32" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="10">
         <v>4</v>
@@ -1907,12 +1916,12 @@
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" ht="140.05" customHeight="1">
+    <row r="33" ht="80.05" customHeight="1">
       <c r="A33" t="s" s="8">
         <v>35</v>
       </c>
       <c r="B33" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="10">
         <v>4</v>
@@ -1922,28 +1931,46 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="11"/>
+    <row r="34" ht="80.05" customHeight="1">
+      <c r="A34" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="11"/>
+    <row r="35" ht="104.05" customHeight="1">
+      <c r="A35" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="11"/>
+    <row r="36" ht="140.05" customHeight="1">
+      <c r="A36" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="B36" s="9">
+        <v>4</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4</v>
+      </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -2003,6 +2030,33 @@
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
     </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/24.xlsx
+++ b/story_xlsx_files/24.xlsx
@@ -56,7 +56,7 @@
     <t>This week the topic is ions.</t>
   </si>
   <si>
-    <t>Now, let me get my computer set up, one moment, class.”</t>
+    <t>Now, let me get my computer set up, and while I do that, does anyone want to tell me what makes elements definitionally distinct from one another.”</t>
   </si>
   <si>
     <t>Lana pulled out the problem set she was thinking about as Aaron unzipped the small pocket in his backpack and pulled out the ring.</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">Aaron put the ring on her finger, and they hugged while the whole class applauded and cheered. </t>
   </si>
   <si>
-    <t>Their friends who had been secretly waiting outside came into the class and hugged both of them.</t>
+    <t>Their friends, who had been secretly waiting outside, came into the class and embraced both of them.</t>
   </si>
   <si>
     <t>The professor gave Aaron a celebratory handshake.</t>
@@ -1601,7 +1601,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" ht="56.05" customHeight="1">
+    <row r="12" ht="128.05" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>14</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" ht="80.05" customHeight="1">
+    <row r="31" ht="92.05" customHeight="1">
       <c r="A31" t="s" s="8">
         <v>33</v>
       </c>
